--- a/data/trans_orig/P45C_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>33755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23426</v>
+        <v>23934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46781</v>
+        <v>45801</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1236387491614824</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08580577661200314</v>
+        <v>0.08766544584393393</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1713529808823265</v>
+        <v>0.1677620988887208</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -765,19 +765,19 @@
         <v>38211</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28061</v>
+        <v>27353</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51512</v>
+        <v>49380</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1464929086033799</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.107579416169555</v>
+        <v>0.1048672163897799</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1974870070125132</v>
+        <v>0.1893128075005833</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -786,19 +786,19 @@
         <v>71966</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56238</v>
+        <v>56870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>88271</v>
+        <v>88432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1348052890308422</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1053439179988631</v>
+        <v>0.1065290273153726</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1653477759797943</v>
+        <v>0.1656495541611153</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>239255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226229</v>
+        <v>227209</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249584</v>
+        <v>249076</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8763612508385176</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8286470191176736</v>
+        <v>0.8322379011112792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9141942233879968</v>
+        <v>0.9123345541560659</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -836,19 +836,19 @@
         <v>222627</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>209326</v>
+        <v>211458</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>232777</v>
+        <v>233485</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8535070913966202</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.802512992987487</v>
+        <v>0.8106871924994168</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8924205838304452</v>
+        <v>0.8951327836102201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>444</v>
@@ -857,19 +857,19 @@
         <v>461882</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>445577</v>
+        <v>445416</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>477610</v>
+        <v>476978</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8651947109691578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8346522240202057</v>
+        <v>0.8343504458388847</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8946560820011373</v>
+        <v>0.8934709726846273</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>118774</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100500</v>
+        <v>98744</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140263</v>
+        <v>138168</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2408852268205273</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2038227300812914</v>
+        <v>0.2002623606437499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2844663138285558</v>
+        <v>0.2802177123250968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -982,19 +982,19 @@
         <v>100587</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82622</v>
+        <v>83488</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117950</v>
+        <v>118095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1995980595262558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1639486233104443</v>
+        <v>0.1656683093161345</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2340523127928951</v>
+        <v>0.2343393546933705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>214</v>
@@ -1003,19 +1003,19 @@
         <v>219362</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>191063</v>
+        <v>195597</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>244667</v>
+        <v>246700</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2200164958694172</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1916330253462678</v>
+        <v>0.1961810841344433</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2453969427684532</v>
+        <v>0.2474366911979666</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>374301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352812</v>
+        <v>354907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>392575</v>
+        <v>394331</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7591147731794727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7155336861714441</v>
+        <v>0.719782287674903</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7961772699187084</v>
+        <v>0.799737639356249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>397</v>
@@ -1053,19 +1053,19 @@
         <v>403362</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>385999</v>
+        <v>385854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>421327</v>
+        <v>420461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8004019404737441</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7659476872071052</v>
+        <v>0.7656606453066297</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8360513766895558</v>
+        <v>0.8343316906838655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>750</v>
@@ -1074,19 +1074,19 @@
         <v>777662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>752357</v>
+        <v>750324</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>805961</v>
+        <v>801427</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7799835041305828</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7546030572315469</v>
+        <v>0.7525633088020334</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8083669746537324</v>
+        <v>0.8038189158655568</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>40022</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30436</v>
+        <v>29142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54188</v>
+        <v>53646</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1255210118266566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09545673758789401</v>
+        <v>0.0913981305567262</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1699495656331476</v>
+        <v>0.1682496598597394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1199,19 +1199,19 @@
         <v>38281</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27395</v>
+        <v>27873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51463</v>
+        <v>51603</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1141305567128898</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08167553320227056</v>
+        <v>0.08310219101162711</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1534318318813901</v>
+        <v>0.1538505298621601</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -1220,19 +1220,19 @@
         <v>78303</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62358</v>
+        <v>63382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97005</v>
+        <v>93341</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1196815786703395</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09531073949030346</v>
+        <v>0.09687635048063512</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1482678960066591</v>
+        <v>0.1426673305673065</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>278824</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>264658</v>
+        <v>265200</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>288410</v>
+        <v>289704</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8744789881733434</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8300504343668524</v>
+        <v>0.8317503401402606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.904543262412106</v>
+        <v>0.9086018694432738</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>296</v>
@@ -1270,19 +1270,19 @@
         <v>297131</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>283949</v>
+        <v>283809</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>308017</v>
+        <v>307539</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8858694432871103</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8465681681186099</v>
+        <v>0.8461494701378399</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9183244667977295</v>
+        <v>0.9168978089883731</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>566</v>
@@ -1291,19 +1291,19 @@
         <v>575955</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>557253</v>
+        <v>560917</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>591900</v>
+        <v>590876</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8803184213296605</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8517321039933409</v>
+        <v>0.8573326694326935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9046892605096964</v>
+        <v>0.9031236495193646</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>81591</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68080</v>
+        <v>66541</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98664</v>
+        <v>99689</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2274805972529854</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1898126599067161</v>
+        <v>0.1855198650213574</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2750830549350339</v>
+        <v>0.2779410634148981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1416,19 +1416,19 @@
         <v>46918</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36156</v>
+        <v>36254</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61259</v>
+        <v>59642</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1263094333565049</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09733617787027544</v>
+        <v>0.09760054972230675</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1649153750567903</v>
+        <v>0.1605618696227959</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -1437,19 +1437,19 @@
         <v>128509</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111315</v>
+        <v>110155</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>150547</v>
+        <v>150665</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1760092390456899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1524602379436336</v>
+        <v>0.1508714274880955</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2061926299728855</v>
+        <v>0.2063539209854012</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>277080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>260007</v>
+        <v>258982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>290591</v>
+        <v>292130</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7725194027470146</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7249169450649662</v>
+        <v>0.7220589365851019</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.810187340093284</v>
+        <v>0.8144801349786426</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>335</v>
@@ -1487,19 +1487,19 @@
         <v>324538</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>310197</v>
+        <v>311814</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>335300</v>
+        <v>335202</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8736905666434951</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8350846249432098</v>
+        <v>0.8394381303772042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9026638221297247</v>
+        <v>0.9023994502776935</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>615</v>
@@ -1508,19 +1508,19 @@
         <v>601618</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>579580</v>
+        <v>579462</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>618812</v>
+        <v>619972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8239907609543101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7938073700271143</v>
+        <v>0.7936460790145987</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8475397620563664</v>
+        <v>0.8491285725119043</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>11393</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6471</v>
+        <v>6229</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19648</v>
+        <v>19387</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05603846887246793</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03182801615334598</v>
+        <v>0.03063813841384579</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09664065234119806</v>
+        <v>0.0953583617111549</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1633,19 +1633,19 @@
         <v>13474</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7678</v>
+        <v>7686</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21328</v>
+        <v>21300</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06488073793825484</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0369718672152518</v>
+        <v>0.03700980963314222</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1027043322616915</v>
+        <v>0.1025658256515865</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1654,19 +1654,19 @@
         <v>24867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16641</v>
+        <v>15891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34988</v>
+        <v>34018</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06050650624407573</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04049032390013322</v>
+        <v>0.03866644882941642</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08513299964016643</v>
+        <v>0.08277430101094066</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>191915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183660</v>
+        <v>183921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196837</v>
+        <v>197079</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9439615311275321</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9033593476588019</v>
+        <v>0.9046416382888451</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9681719838466538</v>
+        <v>0.9693618615861542</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -1704,19 +1704,19 @@
         <v>194194</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186340</v>
+        <v>186368</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199990</v>
+        <v>199982</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9351192620617451</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8972956677383085</v>
+        <v>0.8974341743484134</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9630281327847482</v>
+        <v>0.9629901903668577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>378</v>
@@ -1725,19 +1725,19 @@
         <v>386109</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>375988</v>
+        <v>376958</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394335</v>
+        <v>395085</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9394934937559243</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9148670003598335</v>
+        <v>0.9172256989890591</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9595096760998667</v>
+        <v>0.9613335511705834</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>69194</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55278</v>
+        <v>54402</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83532</v>
+        <v>83545</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2555048670780215</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2041191813472226</v>
+        <v>0.2008857674319211</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3084499233006723</v>
+        <v>0.3084992258686831</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1850,19 +1850,19 @@
         <v>45743</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33109</v>
+        <v>34476</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58085</v>
+        <v>58168</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1644577305542911</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1190350318824345</v>
+        <v>0.1239485248566278</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.208829192581558</v>
+        <v>0.2091277123040745</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -1871,19 +1871,19 @@
         <v>114936</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97610</v>
+        <v>96683</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135727</v>
+        <v>135777</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2093731904253924</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.177810167546941</v>
+        <v>0.1761218321786965</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2472465801982913</v>
+        <v>0.2473369078716228</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>201617</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>187279</v>
+        <v>187266</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>215533</v>
+        <v>216409</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7444951329219786</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6915500766993277</v>
+        <v>0.6915007741313169</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7958808186527774</v>
+        <v>0.7991142325680786</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -1921,19 +1921,19 @@
         <v>232401</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>220059</v>
+        <v>219976</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>245035</v>
+        <v>243668</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8355422694457089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7911708074184421</v>
+        <v>0.7908722876959254</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8809649681175656</v>
+        <v>0.8760514751433722</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>425</v>
@@ -1942,19 +1942,19 @@
         <v>434019</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>413228</v>
+        <v>413178</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>451345</v>
+        <v>452272</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7906268095746076</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7527534198017084</v>
+        <v>0.7526630921283771</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.822189832453059</v>
+        <v>0.8238781678213034</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>80190</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63644</v>
+        <v>63053</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98667</v>
+        <v>97270</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1303838837138284</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1034819749577903</v>
+        <v>0.1025205817902345</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1604271329378527</v>
+        <v>0.158156319903645</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2067,19 +2067,19 @@
         <v>62607</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>48761</v>
+        <v>48379</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77983</v>
+        <v>78333</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09824735538330776</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07651872789877003</v>
+        <v>0.07592008731906541</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1223761057140593</v>
+        <v>0.1229260219145632</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>143</v>
@@ -2088,19 +2088,19 @@
         <v>142797</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121860</v>
+        <v>122260</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166290</v>
+        <v>167955</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1140306096899361</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09731133552818691</v>
+        <v>0.09763092955798267</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1327914706339594</v>
+        <v>0.1341208226268351</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>534837</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>516360</v>
+        <v>517757</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>551383</v>
+        <v>551974</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8696161162861716</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8395728670621471</v>
+        <v>0.8418436800963548</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8965180250422097</v>
+        <v>0.8974794182097655</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>557</v>
@@ -2138,19 +2138,19 @@
         <v>574632</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>559256</v>
+        <v>558906</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>588478</v>
+        <v>588860</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9017526446166922</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8776238942859407</v>
+        <v>0.8770739780854369</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9234812721012301</v>
+        <v>0.9240799126809347</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1075</v>
@@ -2159,19 +2159,19 @@
         <v>1109469</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1085976</v>
+        <v>1084311</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1130406</v>
+        <v>1130006</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8859693903100639</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8672085293660405</v>
+        <v>0.8658791773731648</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9026886644718132</v>
+        <v>0.9023690704420173</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>78549</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63433</v>
+        <v>64278</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>95057</v>
+        <v>96522</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1067071150932111</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08617276404421882</v>
+        <v>0.08732090688970484</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1291334240002763</v>
+        <v>0.1311227192620762</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -2284,19 +2284,19 @@
         <v>73121</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>59203</v>
+        <v>57857</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91805</v>
+        <v>93295</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09419294068526854</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07626314882376542</v>
+        <v>0.07452978984005525</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1182606400185414</v>
+        <v>0.1201806004394859</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>151</v>
@@ -2305,19 +2305,19 @@
         <v>151670</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>128809</v>
+        <v>132485</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>174324</v>
+        <v>174803</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1002838102185701</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08516799164882009</v>
+        <v>0.08759888297266051</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1152622069248659</v>
+        <v>0.1155794302449187</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>657567</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>641059</v>
+        <v>639594</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>672683</v>
+        <v>671838</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8932928849067889</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8708665759997237</v>
+        <v>0.8688772807379237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9138272359557813</v>
+        <v>0.9126790931102953</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>668</v>
@@ -2355,19 +2355,19 @@
         <v>703172</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>684488</v>
+        <v>682998</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>717090</v>
+        <v>718436</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9058070593147315</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8817393599814586</v>
+        <v>0.8798193995605141</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9237368511762345</v>
+        <v>0.9254702101599449</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1315</v>
@@ -2376,19 +2376,19 @@
         <v>1360739</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1338085</v>
+        <v>1337606</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1383600</v>
+        <v>1379924</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8997161897814299</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8847377930751339</v>
+        <v>0.8844205697550812</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9148320083511797</v>
+        <v>0.9124011170273394</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>513467</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>470218</v>
+        <v>471266</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>553814</v>
+        <v>553071</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1570780197001549</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.143847546553388</v>
+        <v>0.1441681623315273</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1694208848364191</v>
+        <v>0.1691936911074355</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>421</v>
@@ -2501,19 +2501,19 @@
         <v>418942</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>383127</v>
+        <v>379058</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>461575</v>
+        <v>459149</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1242783733325966</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1136539755884104</v>
+        <v>0.1124466966701255</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1369254144854399</v>
+        <v>0.1362056538909484</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>927</v>
@@ -2522,19 +2522,19 @@
         <v>932409</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>872773</v>
+        <v>884311</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>993194</v>
+        <v>995789</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1404259336869714</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1314443443094817</v>
+        <v>0.1331820883015168</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1495804196739081</v>
+        <v>0.1499713120529937</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2755397</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2715050</v>
+        <v>2715793</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2798646</v>
+        <v>2797598</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8429219802998451</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8305791151635812</v>
+        <v>0.8308063088925645</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8561524534466122</v>
+        <v>0.8558318376684726</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2868</v>
@@ -2572,19 +2572,19 @@
         <v>2952057</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2909424</v>
+        <v>2911850</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2987872</v>
+        <v>2991941</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8757216266674034</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8630745855145601</v>
+        <v>0.8637943461090517</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8863460244115896</v>
+        <v>0.8875533033298746</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5568</v>
@@ -2593,19 +2593,19 @@
         <v>5707455</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5646670</v>
+        <v>5644075</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5767091</v>
+        <v>5755553</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8595740663130287</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8504195803260918</v>
+        <v>0.850028687947006</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8685556556905182</v>
+        <v>0.8668179116984831</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>53979</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40974</v>
+        <v>41529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68680</v>
+        <v>69805</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1831410689453699</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1390183820198825</v>
+        <v>0.1409023392929027</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2330195541996193</v>
+        <v>0.2368369499242412</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2962,19 +2962,19 @@
         <v>38291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27655</v>
+        <v>27667</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51828</v>
+        <v>51364</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1348277419717955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0973792021379936</v>
+        <v>0.09741963971411971</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1824961009779233</v>
+        <v>0.1808615667327083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -2983,19 +2983,19 @@
         <v>92269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73725</v>
+        <v>75679</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112951</v>
+        <v>115154</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.159432757658408</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1273895760648463</v>
+        <v>0.1307655482804459</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1951686332969679</v>
+        <v>0.198975665397838</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>240759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226058</v>
+        <v>224933</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>253764</v>
+        <v>253209</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.81685893105463</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7669804458003805</v>
+        <v>0.7631630500757588</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8609816179801174</v>
+        <v>0.8590976607070973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>219</v>
@@ -3033,19 +3033,19 @@
         <v>245706</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>232169</v>
+        <v>232633</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256342</v>
+        <v>256330</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8651722580282045</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8175038990220767</v>
+        <v>0.8191384332672916</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9026207978620066</v>
+        <v>0.9025803602858804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>450</v>
@@ -3054,19 +3054,19 @@
         <v>486466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>465784</v>
+        <v>463581</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>505010</v>
+        <v>503056</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.840567242341592</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.804831366703032</v>
+        <v>0.8010243346021618</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8726104239351535</v>
+        <v>0.869234451719554</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>60279</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45799</v>
+        <v>47480</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76385</v>
+        <v>76748</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1209313182473923</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09188159811077919</v>
+        <v>0.09525411233555788</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1532430106893585</v>
+        <v>0.1539701677885755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -3179,19 +3179,19 @@
         <v>51000</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37756</v>
+        <v>38883</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64371</v>
+        <v>67793</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09935201440019724</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07355045823859507</v>
+        <v>0.07574738590888637</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1253982496301893</v>
+        <v>0.1320642016963282</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -3200,19 +3200,19 @@
         <v>111279</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90989</v>
+        <v>91423</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133137</v>
+        <v>132407</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.10998306179298</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08992884391533437</v>
+        <v>0.09035765195021228</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1315864671659879</v>
+        <v>0.130864730970364</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>438178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>422072</v>
+        <v>421709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>452658</v>
+        <v>450977</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8790686817526077</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8467569893106418</v>
+        <v>0.8460298322114246</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9081184018892209</v>
+        <v>0.9047458876644425</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>421</v>
@@ -3250,19 +3250,19 @@
         <v>462330</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>448959</v>
+        <v>445537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>475574</v>
+        <v>474447</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9006479855998027</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8746017503698107</v>
+        <v>0.8679357983036717</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.926449541761405</v>
+        <v>0.9242526140911136</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>827</v>
@@ -3271,19 +3271,19 @@
         <v>900508</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>878650</v>
+        <v>879380</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>920798</v>
+        <v>920364</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.89001693820702</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.868413532834012</v>
+        <v>0.869135269029636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9100711560846656</v>
+        <v>0.9096423480497877</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>97595</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83090</v>
+        <v>80823</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116137</v>
+        <v>115928</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3020475322184746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2571558582151202</v>
+        <v>0.2501399461436269</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3594349028974179</v>
+        <v>0.3587874541350007</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -3396,19 +3396,19 @@
         <v>56828</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44224</v>
+        <v>43178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72820</v>
+        <v>70916</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.167764778896633</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1305562086246067</v>
+        <v>0.1274689526867306</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2149747642802049</v>
+        <v>0.2093533692047053</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>149</v>
@@ -3417,19 +3417,19 @@
         <v>154423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133766</v>
+        <v>132656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178740</v>
+        <v>175393</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2333210171161518</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2021097081286329</v>
+        <v>0.2004327660032527</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2700620774358697</v>
+        <v>0.2650055665417716</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>225516</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>206974</v>
+        <v>207183</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>240021</v>
+        <v>242288</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6979524677815254</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6405650971025821</v>
+        <v>0.6412125458649993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7428441417848798</v>
+        <v>0.7498600538563731</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>262</v>
@@ -3467,19 +3467,19 @@
         <v>281908</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>265916</v>
+        <v>267820</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>294512</v>
+        <v>295558</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.832235221103367</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7850252357197949</v>
+        <v>0.7906466307952946</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8694437913753933</v>
+        <v>0.8725310473132694</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>484</v>
@@ -3488,19 +3488,19 @@
         <v>507424</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>483107</v>
+        <v>486454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>528081</v>
+        <v>529191</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7666789828838482</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7299379225641304</v>
+        <v>0.7349944334582283</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7978902918713671</v>
+        <v>0.7995672339967471</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>45517</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32028</v>
+        <v>34156</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59246</v>
+        <v>61594</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1234509034547026</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08686702717514537</v>
+        <v>0.09263759455579822</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1606880048492525</v>
+        <v>0.167055246985266</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -3613,19 +3613,19 @@
         <v>31427</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22022</v>
+        <v>20937</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44843</v>
+        <v>43961</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08190319018273162</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05739301762359</v>
+        <v>0.05456554799062863</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1168680500332533</v>
+        <v>0.114569446699987</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -3634,19 +3634,19 @@
         <v>76944</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62929</v>
+        <v>59541</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96561</v>
+        <v>96748</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.102262733042216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08363709394105083</v>
+        <v>0.07913380408337818</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1283354702274116</v>
+        <v>0.1285843723809348</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>323185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>309456</v>
+        <v>307108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>336674</v>
+        <v>334546</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8765490965452973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8393119951507475</v>
+        <v>0.8329447530147339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9131329728248546</v>
+        <v>0.9073624054442018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>337</v>
@@ -3684,19 +3684,19 @@
         <v>352281</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>338865</v>
+        <v>339747</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>361686</v>
+        <v>362771</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9180968098172684</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8831319499667469</v>
+        <v>0.8854305533000136</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9426069823764101</v>
+        <v>0.9454344520093714</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>634</v>
@@ -3705,19 +3705,19 @@
         <v>675466</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>655849</v>
+        <v>655662</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>689481</v>
+        <v>692869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.897737266957784</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8716645297725885</v>
+        <v>0.871415627619065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9163629060589491</v>
+        <v>0.9208661959166218</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>22986</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15398</v>
+        <v>15001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32899</v>
+        <v>32637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.108108640465912</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07242314699662906</v>
+        <v>0.07055333533062273</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1547305787332453</v>
+        <v>0.1534987596450337</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -3830,19 +3830,19 @@
         <v>24290</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16342</v>
+        <v>16384</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34794</v>
+        <v>34265</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1111206025365659</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07475823011652048</v>
+        <v>0.07495342548153135</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1591737027341443</v>
+        <v>0.156752996999756</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -3851,19 +3851,19 @@
         <v>47276</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36461</v>
+        <v>36641</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61216</v>
+        <v>60524</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1096354894949316</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08455564457919633</v>
+        <v>0.08497253476320259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1419640235123137</v>
+        <v>0.1403580186333867</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>189632</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179719</v>
+        <v>179981</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197220</v>
+        <v>197617</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.891891359534088</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8452694212667546</v>
+        <v>0.8465012403549663</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9275768530033709</v>
+        <v>0.9294466646693773</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -3901,19 +3901,19 @@
         <v>194303</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183799</v>
+        <v>184328</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202251</v>
+        <v>202209</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.888879397463434</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8408262972658554</v>
+        <v>0.8432470030002447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9252417698834794</v>
+        <v>0.9250465745184688</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>360</v>
@@ -3922,19 +3922,19 @@
         <v>383935</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>369995</v>
+        <v>370687</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394750</v>
+        <v>394570</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8903645105050684</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8580359764876863</v>
+        <v>0.8596419813666133</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9154443554208037</v>
+        <v>0.9150274652367973</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>90247</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75195</v>
+        <v>77092</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107591</v>
+        <v>107400</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3316929290695998</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2763714314436384</v>
+        <v>0.2833423218340154</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3954401793853121</v>
+        <v>0.3947367780666295</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -4047,19 +4047,19 @@
         <v>64995</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50875</v>
+        <v>51553</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80192</v>
+        <v>79264</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2321005486410117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1816751036196071</v>
+        <v>0.1840967032031397</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.286366745826897</v>
+        <v>0.2830526077553878</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>153</v>
@@ -4068,19 +4068,19 @@
         <v>155242</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>133901</v>
+        <v>134711</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>177166</v>
+        <v>179809</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2811795814589398</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2425260332864785</v>
+        <v>0.2439929592889772</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3208887332967909</v>
+        <v>0.3256761061954005</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>181833</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>164489</v>
+        <v>164680</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196885</v>
+        <v>194988</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6683070709304002</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6045598206146879</v>
+        <v>0.6052632219333706</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7236285685563616</v>
+        <v>0.7166576781659845</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -4118,19 +4118,19 @@
         <v>215036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>199839</v>
+        <v>200767</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>229156</v>
+        <v>228478</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7678994513589883</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.713633254173103</v>
+        <v>0.7169473922446122</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8183248963803926</v>
+        <v>0.8159032967968604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>375</v>
@@ -4139,19 +4139,19 @@
         <v>396869</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>374945</v>
+        <v>372302</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>418210</v>
+        <v>417400</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7188204185410603</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6791112667032092</v>
+        <v>0.6743238938045997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7574739667135214</v>
+        <v>0.7560070407110229</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>169028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>144750</v>
+        <v>147488</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>190787</v>
+        <v>192674</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2561689917945948</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2193744288741926</v>
+        <v>0.2235230938044059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2891451980550835</v>
+        <v>0.2920044031606038</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>139</v>
@@ -4264,19 +4264,19 @@
         <v>148852</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>128687</v>
+        <v>126886</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>174191</v>
+        <v>172183</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2155162931697575</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1863200606313273</v>
+        <v>0.183712341934363</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2522035156712059</v>
+        <v>0.2492957791957846</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>305</v>
@@ -4285,19 +4285,19 @@
         <v>317881</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>288958</v>
+        <v>288826</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>352949</v>
+        <v>354669</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2353783857551875</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2139618973082789</v>
+        <v>0.213864623594517</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2613453243954474</v>
+        <v>0.2626188654282854</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>490804</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>469045</v>
+        <v>467158</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>515082</v>
+        <v>512344</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7438310082054052</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7108548019449163</v>
+        <v>0.7079955968393962</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7806255711258073</v>
+        <v>0.7764769061955941</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>494</v>
@@ -4335,19 +4335,19 @@
         <v>541826</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>516487</v>
+        <v>518495</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>561991</v>
+        <v>563792</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7844837068302425</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.747796484328794</v>
+        <v>0.7507042208042155</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8136799393686727</v>
+        <v>0.8162876580656369</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>943</v>
@@ -4356,19 +4356,19 @@
         <v>1032629</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>997561</v>
+        <v>995841</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1061552</v>
+        <v>1061684</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7646216142448125</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7386546756045526</v>
+        <v>0.7373811345717145</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.786038102691721</v>
+        <v>0.786135376405483</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>58275</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45772</v>
+        <v>45833</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74949</v>
+        <v>74782</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07572991531109115</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05948206299819771</v>
+        <v>0.05956166482805215</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09739769585418327</v>
+        <v>0.0971816128471425</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -4481,19 +4481,19 @@
         <v>59006</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45726</v>
+        <v>45457</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75874</v>
+        <v>74530</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07245761247373357</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0561497386485828</v>
+        <v>0.05581933872355752</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09317101213150025</v>
+        <v>0.09152061352072434</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>113</v>
@@ -4502,19 +4502,19 @@
         <v>117281</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>98746</v>
+        <v>98891</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>137497</v>
+        <v>139768</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.074047439332712</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06234510646250065</v>
+        <v>0.06243639216643051</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08681141095401243</v>
+        <v>0.08824519612320186</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>711235</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>694561</v>
+        <v>694728</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>723738</v>
+        <v>723677</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9242700846889088</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9026023041458167</v>
+        <v>0.9028183871528574</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9405179370018021</v>
+        <v>0.9404383351719477</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>691</v>
@@ -4552,19 +4552,19 @@
         <v>755348</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>738480</v>
+        <v>739824</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>768628</v>
+        <v>768897</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9275423875262664</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9068289878684997</v>
+        <v>0.9084793864792757</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9438502613514173</v>
+        <v>0.9441806612764426</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1343</v>
@@ -4573,19 +4573,19 @@
         <v>1466583</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1446367</v>
+        <v>1444096</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1485118</v>
+        <v>1484973</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.925952560667288</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9131885890459874</v>
+        <v>0.9117548038767981</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9376548935374991</v>
+        <v>0.9375636078335694</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>597905</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>556751</v>
+        <v>551186</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>644190</v>
+        <v>647409</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1759037730055334</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.163796189784567</v>
+        <v>0.1621590583207338</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1895208409637404</v>
+        <v>0.1904677285638804</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>448</v>
@@ -4698,19 +4698,19 @@
         <v>474690</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>432624</v>
+        <v>434363</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>514856</v>
+        <v>519031</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1347239336185309</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1227850932001825</v>
+        <v>0.123278629522971</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1461235814016261</v>
+        <v>0.1473085039943351</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1031</v>
@@ -4719,19 +4719,19 @@
         <v>1072595</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1013817</v>
+        <v>1012135</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1136803</v>
+        <v>1135474</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1549439035260347</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.146452928045385</v>
+        <v>0.1462099325284876</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1642191328485787</v>
+        <v>0.1640271377188005</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2801142</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2754857</v>
+        <v>2751638</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2842296</v>
+        <v>2847861</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8240962269944666</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8104791590362596</v>
+        <v>0.8095322714361195</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8362038102154329</v>
+        <v>0.8378409416792661</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2817</v>
@@ -4769,19 +4769,19 @@
         <v>3048737</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3008571</v>
+        <v>3004396</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3090803</v>
+        <v>3089064</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.865276066381469</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8538764185983738</v>
+        <v>0.8526914960056646</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8772149067998175</v>
+        <v>0.8767213704770289</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5416</v>
@@ -4790,19 +4790,19 @@
         <v>5849880</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5785672</v>
+        <v>5787001</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5908658</v>
+        <v>5910340</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8450560964739653</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8357808671514214</v>
+        <v>0.8359728622811996</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8535470719546151</v>
+        <v>0.8537900674715123</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>57434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43606</v>
+        <v>43492</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73909</v>
+        <v>72635</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1955135203297656</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1484416852365432</v>
+        <v>0.1480537048674279</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2515971551762863</v>
+        <v>0.2472589253962029</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -5159,19 +5159,19 @@
         <v>41812</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31474</v>
+        <v>30966</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54508</v>
+        <v>54257</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1452855172615132</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1093648973613096</v>
+        <v>0.1075991327675057</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1893992223233871</v>
+        <v>0.1885281774876963</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>93</v>
@@ -5180,19 +5180,19 @@
         <v>99246</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82405</v>
+        <v>82464</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117944</v>
+        <v>120317</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1706572490976484</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1416985063536886</v>
+        <v>0.1417988817386815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2028081185447759</v>
+        <v>0.2068881051741605</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>236327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>219852</v>
+        <v>221126</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>250155</v>
+        <v>250269</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8044864796702345</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7484028448237138</v>
+        <v>0.7527410746037969</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8515583147634568</v>
+        <v>0.8519462951325719</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -5230,19 +5230,19 @@
         <v>245981</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>233285</v>
+        <v>233536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256319</v>
+        <v>256827</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8547144827384868</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8106007776766128</v>
+        <v>0.8114718225123037</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8906351026386904</v>
+        <v>0.8924008672324942</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>449</v>
@@ -5251,19 +5251,19 @@
         <v>482308</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>463610</v>
+        <v>461237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>499149</v>
+        <v>499090</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8293427509023517</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7971918814552242</v>
+        <v>0.7931118948258394</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8583014936463114</v>
+        <v>0.8582011182613184</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>63570</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50159</v>
+        <v>50282</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80807</v>
+        <v>80503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1275535102622883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1006435232822403</v>
+        <v>0.1008915471722287</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1621407038196837</v>
+        <v>0.1615291171948998</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -5376,19 +5376,19 @@
         <v>76264</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61649</v>
+        <v>60949</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92856</v>
+        <v>94092</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1464102115556189</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1183537055178952</v>
+        <v>0.117009610731879</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1782641400304727</v>
+        <v>0.1806376534032793</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -5397,19 +5397,19 @@
         <v>139833</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117986</v>
+        <v>120560</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>161244</v>
+        <v>163183</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1371901029435693</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1157560076545425</v>
+        <v>0.1182807342787367</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.158195703971032</v>
+        <v>0.1600983045484139</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>434808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>417571</v>
+        <v>417875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>448219</v>
+        <v>448096</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8724464897377118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8378592961803167</v>
+        <v>0.8384708828051003</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8993564767177603</v>
+        <v>0.8991084528277713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>407</v>
@@ -5447,19 +5447,19 @@
         <v>444626</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>428034</v>
+        <v>426798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>459241</v>
+        <v>459941</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8535897884443812</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8217358599695276</v>
+        <v>0.8193623465967207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.881646294482105</v>
+        <v>0.8829903892681208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>816</v>
@@ -5468,19 +5468,19 @@
         <v>879435</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>858024</v>
+        <v>856085</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>901282</v>
+        <v>898708</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8628098970564307</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8418042960289679</v>
+        <v>0.8399016954515861</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8842439923454576</v>
+        <v>0.8817192657212634</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>28650</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20287</v>
+        <v>20087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41043</v>
+        <v>40528</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09084251735232746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06432359977243197</v>
+        <v>0.06368906383412275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1301367472892783</v>
+        <v>0.1285029874863912</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -5593,19 +5593,19 @@
         <v>41397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31267</v>
+        <v>30481</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52885</v>
+        <v>55214</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1242881417442375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09387315399017419</v>
+        <v>0.0915137122473931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1587791991958633</v>
+        <v>0.1657719466225721</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -5614,19 +5614,19 @@
         <v>70047</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56303</v>
+        <v>54819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87188</v>
+        <v>85547</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1080214137199008</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08682674420564726</v>
+        <v>0.08453710915535986</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1344538026301666</v>
+        <v>0.1319240789193953</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>286736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>274343</v>
+        <v>274858</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>295099</v>
+        <v>295299</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9091574826476725</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8698632527107216</v>
+        <v>0.8714970125136088</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9356764002275679</v>
+        <v>0.9363109361658772</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -5664,19 +5664,19 @@
         <v>291675</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>280187</v>
+        <v>277858</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>301805</v>
+        <v>302591</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8757118582557625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8412208008041369</v>
+        <v>0.8342280533774279</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.906126846009826</v>
+        <v>0.9084862877526069</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>589</v>
@@ -5685,19 +5685,19 @@
         <v>578411</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>561270</v>
+        <v>562911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>592155</v>
+        <v>593639</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8919785862800992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8655461973698334</v>
+        <v>0.8680759210806047</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9131732557943526</v>
+        <v>0.9154628908446399</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>50669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37891</v>
+        <v>37890</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64365</v>
+        <v>64379</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1373152074462367</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1026862618159118</v>
+        <v>0.1026823906587219</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1744311974241594</v>
+        <v>0.174469909303445</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -5810,19 +5810,19 @@
         <v>43989</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32452</v>
+        <v>32992</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56687</v>
+        <v>58518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.114146635848693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08420917737936603</v>
+        <v>0.08560930492516336</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1470953320749053</v>
+        <v>0.1518467864560323</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>90</v>
@@ -5831,19 +5831,19 @@
         <v>94658</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77729</v>
+        <v>78994</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113969</v>
+        <v>117343</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1254794404667884</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1030374799627703</v>
+        <v>0.1047153091880627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1510784884519178</v>
+        <v>0.1555507942892744</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>318329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>304633</v>
+        <v>304619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>331107</v>
+        <v>331108</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8626847925537633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8255688025758406</v>
+        <v>0.825530090696555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.897313738184088</v>
+        <v>0.897317609341278</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -5881,19 +5881,19 @@
         <v>341385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>328687</v>
+        <v>326856</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>352922</v>
+        <v>352382</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.885853364151307</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8529046679250952</v>
+        <v>0.8481532135439687</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.915790822620634</v>
+        <v>0.9143906950748368</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>619</v>
@@ -5902,19 +5902,19 @@
         <v>659714</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>640403</v>
+        <v>637029</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>676643</v>
+        <v>675378</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8745205595332116</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8489215115480823</v>
+        <v>0.8444492057107255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8969625200372305</v>
+        <v>0.895284690811937</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>7217</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2891</v>
+        <v>2863</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14553</v>
+        <v>14411</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03416794706170671</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01368866581844434</v>
+        <v>0.01355635358371459</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06890015766674737</v>
+        <v>0.06822487351918821</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4140</v>
+        <v>4198</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003782263345223203</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0189378003393152</v>
+        <v>0.0192051981788897</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -6048,19 +6048,19 @@
         <v>8044</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3698</v>
+        <v>3648</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15510</v>
+        <v>16092</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01871473196696092</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008604678555699614</v>
+        <v>0.008488060783498072</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03608667291846935</v>
+        <v>0.03744060156073616</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>204004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196668</v>
+        <v>196810</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208330</v>
+        <v>208358</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9658320529382933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9310998423332526</v>
+        <v>0.9317751264808117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9863113341815557</v>
+        <v>0.9864436464162853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>222</v>
@@ -6098,7 +6098,7 @@
         <v>217760</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214447</v>
+        <v>214389</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>218587</v>
@@ -6107,7 +6107,7 @@
         <v>0.9962177366547768</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9810621996606849</v>
+        <v>0.9807948018211103</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -6119,19 +6119,19 @@
         <v>421764</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414298</v>
+        <v>413716</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426110</v>
+        <v>426160</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9812852680330391</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9639133270815307</v>
+        <v>0.9625593984392639</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9913953214443004</v>
+        <v>0.9915119392165019</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>6008</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2053</v>
+        <v>2886</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12392</v>
+        <v>13373</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02291847576532836</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007830549014557441</v>
+        <v>0.01101021186916712</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04727004042886971</v>
+        <v>0.05101275936140593</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -6244,19 +6244,19 @@
         <v>11033</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5861</v>
+        <v>5761</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19574</v>
+        <v>19380</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04054788182487513</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02154008358267554</v>
+        <v>0.02117391040326104</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07193728871468001</v>
+        <v>0.07122149556082921</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -6265,19 +6265,19 @@
         <v>17041</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10587</v>
+        <v>10246</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27088</v>
+        <v>26929</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03189734868397868</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01981649121105087</v>
+        <v>0.01917823704228266</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05070157894929543</v>
+        <v>0.05040538604644962</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>256144</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249760</v>
+        <v>248779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260099</v>
+        <v>259266</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9770815242346717</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9527299595711298</v>
+        <v>0.9489872406385945</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9921694509854424</v>
+        <v>0.9889897881308328</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -6315,19 +6315,19 @@
         <v>261070</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>252529</v>
+        <v>252723</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>266242</v>
+        <v>266342</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9594521181751249</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.92806271128532</v>
+        <v>0.9287785044391708</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9784599164173247</v>
+        <v>0.9788260895967388</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>503</v>
@@ -6336,19 +6336,19 @@
         <v>517214</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>507167</v>
+        <v>507326</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>523668</v>
+        <v>524009</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9681026513160214</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9492984210507043</v>
+        <v>0.9495946139535504</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.980183508788949</v>
+        <v>0.9808217629577174</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>92646</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74260</v>
+        <v>74487</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>114083</v>
+        <v>112611</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1438369293211964</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.115292357497501</v>
+        <v>0.1156447384580321</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.177118724600507</v>
+        <v>0.1748339636326762</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>107</v>
@@ -6461,19 +6461,19 @@
         <v>109643</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>92404</v>
+        <v>91938</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129009</v>
+        <v>128636</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1618251488970814</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1363828324405063</v>
+        <v>0.1356942719793515</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1904081888653397</v>
+        <v>0.1898586144412764</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>186</v>
@@ -6482,19 +6482,19 @@
         <v>202289</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>177863</v>
+        <v>178175</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>229818</v>
+        <v>231427</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1530585566060151</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1345772567091059</v>
+        <v>0.134813277838784</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.173888583615164</v>
+        <v>0.1751058197659598</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>551459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>530022</v>
+        <v>531494</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>569845</v>
+        <v>569618</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8561630706788036</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8228812753994931</v>
+        <v>0.8251660363673238</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.884707642502499</v>
+        <v>0.8843552615419678</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>527</v>
@@ -6532,19 +6532,19 @@
         <v>567894</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>548528</v>
+        <v>548901</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>585133</v>
+        <v>585599</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8381748511029186</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8095918111346603</v>
+        <v>0.8101413855587236</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8636171675594938</v>
+        <v>0.8643057280206485</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1017</v>
@@ -6553,19 +6553,19 @@
         <v>1119353</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1091824</v>
+        <v>1090215</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1143779</v>
+        <v>1143467</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8469414433939849</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8261114163848359</v>
+        <v>0.82489418023404</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.865422743290894</v>
+        <v>0.8651867221612159</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>146960</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>126571</v>
+        <v>125763</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>169266</v>
+        <v>170482</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1905422484769057</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1641075268728193</v>
+        <v>0.1630597591371145</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2194631046877321</v>
+        <v>0.2210401872375231</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>141</v>
@@ -6678,19 +6678,19 @@
         <v>152481</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>130903</v>
+        <v>130660</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>174977</v>
+        <v>176872</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1853085216610825</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1590839134340762</v>
+        <v>0.1587889996428024</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2126473003598133</v>
+        <v>0.2149498347100852</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>283</v>
@@ -6699,19 +6699,19 @@
         <v>299441</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>267203</v>
+        <v>268016</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>330572</v>
+        <v>330597</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1878407115474045</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1676173459546905</v>
+        <v>0.1681275513567678</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2073694136907961</v>
+        <v>0.2073851841744847</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>624311</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>602005</v>
+        <v>600789</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>644700</v>
+        <v>645508</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8094577515230944</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7805368953122683</v>
+        <v>0.7789598127624769</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.835892473127181</v>
+        <v>0.8369402408628861</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>612</v>
@@ -6749,19 +6749,19 @@
         <v>670371</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>647875</v>
+        <v>645980</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>691949</v>
+        <v>692192</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8146914783389175</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7873526996401863</v>
+        <v>0.7850501652899148</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8409160865659236</v>
+        <v>0.8412110003571976</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1213</v>
@@ -6770,19 +6770,19 @@
         <v>1294682</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1263551</v>
+        <v>1263526</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1326920</v>
+        <v>1326107</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8121592884525956</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7926305863092037</v>
+        <v>0.7926148158255143</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8323826540453095</v>
+        <v>0.831872448643232</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>453154</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>414522</v>
+        <v>411068</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>495572</v>
+        <v>491730</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.134656121118779</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1231764989715528</v>
+        <v>0.1221501551165663</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1472605751475211</v>
+        <v>0.1461189281577772</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>463</v>
@@ -6895,19 +6895,19 @@
         <v>477446</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>439808</v>
+        <v>438672</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>519184</v>
+        <v>522355</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1357071056157401</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1250090515558696</v>
+        <v>0.1246863088772536</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1475704631589553</v>
+        <v>0.1484718835857695</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>886</v>
@@ -6916,19 +6916,19 @@
         <v>930600</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>875184</v>
+        <v>878302</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>988441</v>
+        <v>996344</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1351932886635165</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.127142726679158</v>
+        <v>0.1275956402206338</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1435961321907276</v>
+        <v>0.1447442416471867</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2912118</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2869700</v>
+        <v>2873542</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2950750</v>
+        <v>2954204</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.865343878881221</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8527394248524789</v>
+        <v>0.8538810718422227</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8768235010284472</v>
+        <v>0.8778498448834341</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2852</v>
@@ -6966,19 +6966,19 @@
         <v>3040762</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2999024</v>
+        <v>2995853</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3078400</v>
+        <v>3079536</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8642928943842599</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8524295368410442</v>
+        <v>0.8515281164142305</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8749909484441296</v>
+        <v>0.8753136911227466</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5633</v>
@@ -6987,19 +6987,19 @@
         <v>5952880</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5895039</v>
+        <v>5887136</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6008296</v>
+        <v>6005178</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8648067113364836</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8564038678092724</v>
+        <v>0.8552557583528133</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8728572733208421</v>
+        <v>0.8724043597793661</v>
       </c>
     </row>
     <row r="30">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3061</v>
+        <v>2340</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001558528857377025</v>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009684788617019664</v>
+        <v>0.007402671902331603</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -7372,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2532</v>
+        <v>2261</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0007758466476427921</v>
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003988280996760241</v>
+        <v>0.003560938359240165</v>
       </c>
     </row>
     <row r="5">
@@ -7411,16 +7411,16 @@
         <v>315568</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>313000</v>
+        <v>313721</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>316061</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9984414711426228</v>
+        <v>0.998441471142623</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9903152113829804</v>
+        <v>0.9925973280976679</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -7432,7 +7432,7 @@
         <v>634413</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>632374</v>
+        <v>632645</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>634906</v>
@@ -7441,7 +7441,7 @@
         <v>0.9992241533523573</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9960117190032397</v>
+        <v>0.9964390616407593</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -7536,19 +7536,19 @@
         <v>90766</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69317</v>
+        <v>69178</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115223</v>
+        <v>113937</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.171485622825388</v>
+        <v>0.1714856228253879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1309627788266967</v>
+        <v>0.1306991393874611</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2176924471636854</v>
+        <v>0.2152629354936018</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>103</v>
@@ -7557,19 +7557,19 @@
         <v>84810</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71023</v>
+        <v>68496</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101714</v>
+        <v>102098</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1553618828206051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1301057191428636</v>
+        <v>0.1254764517715138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1863289476085964</v>
+        <v>0.1870315436948428</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>159</v>
@@ -7578,19 +7578,19 @@
         <v>175576</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>148278</v>
+        <v>149447</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>205378</v>
+        <v>205587</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1632993187518958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1379107333729832</v>
+        <v>0.1389972543926296</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1910177889449614</v>
+        <v>0.1912126788945364</v>
       </c>
     </row>
     <row r="8">
@@ -7607,19 +7607,19 @@
         <v>438525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>414068</v>
+        <v>415354</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>459974</v>
+        <v>460113</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8285143771746121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7823075528363146</v>
+        <v>0.7847370645063984</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8690372211733034</v>
+        <v>0.8693008606125389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>613</v>
@@ -7628,19 +7628,19 @@
         <v>461076</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>444172</v>
+        <v>443788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>474863</v>
+        <v>477390</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8446381171793951</v>
+        <v>0.8446381171793949</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8136710523914036</v>
+        <v>0.8129684563051569</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8698942808571364</v>
+        <v>0.8745235482284863</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>938</v>
@@ -7649,19 +7649,19 @@
         <v>899601</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>869799</v>
+        <v>869590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>926899</v>
+        <v>925730</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8367006812481044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8089822110550386</v>
+        <v>0.8087873211054637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8620892666270167</v>
+        <v>0.8610027456073701</v>
       </c>
     </row>
     <row r="9">
@@ -7753,19 +7753,19 @@
         <v>21605</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13618</v>
+        <v>14369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31553</v>
+        <v>32361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06850412988535637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04318005531209989</v>
+        <v>0.04556033319179814</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1000474918827306</v>
+        <v>0.1026072452044892</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -7774,19 +7774,19 @@
         <v>26694</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18009</v>
+        <v>17579</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37750</v>
+        <v>37837</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07490330266162026</v>
+        <v>0.07490330266162025</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05053292816997469</v>
+        <v>0.04932654226328997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1059246677894301</v>
+        <v>0.1061701933039922</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -7795,19 +7795,19 @@
         <v>48299</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35633</v>
+        <v>37171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62471</v>
+        <v>62972</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07189898651955891</v>
+        <v>0.07189898651955892</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05304444362062096</v>
+        <v>0.05533370181728542</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09299507458512671</v>
+        <v>0.09374128215226267</v>
       </c>
     </row>
     <row r="11">
@@ -7824,19 +7824,19 @@
         <v>293779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283831</v>
+        <v>283023</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301766</v>
+        <v>301015</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9314958701146436</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8999525081172695</v>
+        <v>0.8973927547955109</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9568199446879001</v>
+        <v>0.9544396668082019</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>506</v>
@@ -7845,19 +7845,19 @@
         <v>329687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318631</v>
+        <v>318544</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338372</v>
+        <v>338802</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9250966973383798</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8940753322105697</v>
+        <v>0.8938298066960078</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9494670718300253</v>
+        <v>0.95067345773671</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>844</v>
@@ -7866,19 +7866,19 @@
         <v>623466</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>609294</v>
+        <v>608793</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>636132</v>
+        <v>634594</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9281010134804411</v>
+        <v>0.9281010134804412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9070049254148733</v>
+        <v>0.906258717847737</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9469555563793789</v>
+        <v>0.9446662981827147</v>
       </c>
     </row>
     <row r="12">
@@ -7970,19 +7970,19 @@
         <v>54788</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37065</v>
+        <v>38581</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76087</v>
+        <v>77608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1478137797683173</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09999777765212585</v>
+        <v>0.1040877611406465</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2052769004467524</v>
+        <v>0.2093810119157696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -7991,19 +7991,19 @@
         <v>47018</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36660</v>
+        <v>37133</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59462</v>
+        <v>59602</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1114280455409516</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08687999118177324</v>
+        <v>0.08800120499194256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1409180723735552</v>
+        <v>0.141250289232637</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -8012,19 +8012,19 @@
         <v>101806</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80937</v>
+        <v>81112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125959</v>
+        <v>131290</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1284432653190296</v>
+        <v>0.1284432653190297</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1021140601484521</v>
+        <v>0.1023342751730044</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1589157006800835</v>
+        <v>0.165641831393159</v>
       </c>
     </row>
     <row r="14">
@@ -8041,19 +8041,19 @@
         <v>315866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>294567</v>
+        <v>293046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>333589</v>
+        <v>332073</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8521862202316827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7947230995532475</v>
+        <v>0.7906189880842304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9000022223478742</v>
+        <v>0.8959122388593536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>533</v>
@@ -8062,19 +8062,19 @@
         <v>374943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>362499</v>
+        <v>362359</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>385301</v>
+        <v>384828</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8885719544590485</v>
+        <v>0.8885719544590486</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8590819276264448</v>
+        <v>0.8587497107673633</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9131200088182267</v>
+        <v>0.9119987950080575</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>786</v>
@@ -8083,19 +8083,19 @@
         <v>690810</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>666657</v>
+        <v>661326</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>711679</v>
+        <v>711504</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8715567346809703</v>
+        <v>0.8715567346809704</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8410842993199165</v>
+        <v>0.8343581686068411</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8978859398515479</v>
+        <v>0.8976657248269954</v>
       </c>
     </row>
     <row r="15">
@@ -8187,19 +8187,19 @@
         <v>12291</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7400</v>
+        <v>6953</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19862</v>
+        <v>19398</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05976176199250492</v>
+        <v>0.05976176199250493</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03598284340742449</v>
+        <v>0.03380631730971424</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09657664982875856</v>
+        <v>0.09431913483081425</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -8208,19 +8208,19 @@
         <v>8437</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4345</v>
+        <v>4552</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15426</v>
+        <v>15128</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03719788359988535</v>
+        <v>0.03719788359988534</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01915577911573253</v>
+        <v>0.02007071526543123</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06801007115620994</v>
+        <v>0.0666970365300088</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -8229,19 +8229,19 @@
         <v>20728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14054</v>
+        <v>13882</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30130</v>
+        <v>30593</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04792787672431801</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03249485706330364</v>
+        <v>0.03209734721189415</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06966636486143622</v>
+        <v>0.07073653278497578</v>
       </c>
     </row>
     <row r="17">
@@ -8258,19 +8258,19 @@
         <v>193374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185803</v>
+        <v>186267</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198265</v>
+        <v>198712</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.940238238007495</v>
+        <v>0.9402382380074952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9034233501712416</v>
+        <v>0.905680865169186</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9640171565925757</v>
+        <v>0.9661936826902857</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>477</v>
@@ -8279,19 +8279,19 @@
         <v>218386</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211397</v>
+        <v>211695</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222478</v>
+        <v>222271</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9628021164001147</v>
+        <v>0.9628021164001146</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9319899288437899</v>
+        <v>0.933302963469991</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9808442208842673</v>
+        <v>0.9799292847345685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>741</v>
@@ -8300,19 +8300,19 @@
         <v>411760</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>402358</v>
+        <v>401895</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>418434</v>
+        <v>418606</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.952072123275682</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9303336351385638</v>
+        <v>0.9292634672150243</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9675051429366963</v>
+        <v>0.9679026527881059</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>57789</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46279</v>
+        <v>46054</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70653</v>
+        <v>70102</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2141083163103017</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1714623683910356</v>
+        <v>0.1706277232784504</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2617669727294063</v>
+        <v>0.2597282055950857</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>129</v>
@@ -8425,19 +8425,19 @@
         <v>77082</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>64800</v>
+        <v>65245</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89115</v>
+        <v>91272</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2922545324137049</v>
+        <v>0.2922545324137047</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.245687766970996</v>
+        <v>0.2473752574717996</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3378753265128111</v>
+        <v>0.3460538002753317</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>202</v>
@@ -8446,19 +8446,19 @@
         <v>134872</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>117070</v>
+        <v>118949</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>152370</v>
+        <v>153085</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2527306217407722</v>
+        <v>0.2527306217407723</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2193729584102027</v>
+        <v>0.2228944729412859</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2855194247903655</v>
+        <v>0.286859726307988</v>
       </c>
     </row>
     <row r="20">
@@ -8475,19 +8475,19 @@
         <v>212118</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199254</v>
+        <v>199805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223628</v>
+        <v>223853</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7858916836896982</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7382330272705935</v>
+        <v>0.7402717944049141</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8285376316089644</v>
+        <v>0.8293722767215496</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -8496,19 +8496,19 @@
         <v>186668</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>174635</v>
+        <v>172478</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>198950</v>
+        <v>198505</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7077454675862953</v>
+        <v>0.7077454675862951</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6621246734871888</v>
+        <v>0.6539461997246682</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.754312233029004</v>
+        <v>0.7526247425282002</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>627</v>
@@ -8517,19 +8517,19 @@
         <v>398786</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>381288</v>
+        <v>380573</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>416588</v>
+        <v>414709</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7472693782592276</v>
+        <v>0.7472693782592277</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7144805752096345</v>
+        <v>0.7131402736920122</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7806270415897971</v>
+        <v>0.7771055270587141</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>103965</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>82779</v>
+        <v>80287</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>131098</v>
+        <v>127737</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1449085862252935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1153794076447185</v>
+        <v>0.1119057121455899</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1827276381189583</v>
+        <v>0.1780429059659122</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>104</v>
@@ -8642,19 +8642,19 @@
         <v>104492</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85899</v>
+        <v>85158</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>127246</v>
+        <v>125609</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1355954971055739</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1114672428529749</v>
+        <v>0.1105053884123539</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1651217587676299</v>
+        <v>0.1629979446181153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>176</v>
@@ -8663,19 +8663,19 @@
         <v>208457</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>178488</v>
+        <v>178411</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241532</v>
+        <v>238761</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1400856578600602</v>
+        <v>0.1400856578600601</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1199459665956752</v>
+        <v>0.1198942139671041</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.162312179691975</v>
+        <v>0.1604502950687244</v>
       </c>
     </row>
     <row r="23">
@@ -8692,19 +8692,19 @@
         <v>613484</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>586351</v>
+        <v>589712</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>634670</v>
+        <v>637162</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8550914137747068</v>
+        <v>0.8550914137747065</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8172723618810417</v>
+        <v>0.8219570940340879</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8846205923552815</v>
+        <v>0.8880942878544102</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>855</v>
@@ -8713,19 +8713,19 @@
         <v>666127</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>643373</v>
+        <v>645010</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>684720</v>
+        <v>685461</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8644045028944261</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8348782412323706</v>
+        <v>0.8370020553818847</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8885327571470252</v>
+        <v>0.8894946115876461</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1380</v>
@@ -8734,19 +8734,19 @@
         <v>1279611</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1246536</v>
+        <v>1249307</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1309580</v>
+        <v>1309657</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8599143421399401</v>
+        <v>0.8599143421399398</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8376878203080255</v>
+        <v>0.8395497049312756</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8800540334043252</v>
+        <v>0.8801057860328957</v>
       </c>
     </row>
     <row r="24">
@@ -8838,19 +8838,19 @@
         <v>256996</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>229803</v>
+        <v>228238</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>287020</v>
+        <v>285340</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3220208207665926</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2879474464232911</v>
+        <v>0.2859864297924927</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3596412208850193</v>
+        <v>0.3575362514606465</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>180</v>
@@ -8859,19 +8859,19 @@
         <v>148362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>128032</v>
+        <v>130432</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>170910</v>
+        <v>170575</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1789266843307487</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1544085628644333</v>
+        <v>0.1573032883766435</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2061198006045569</v>
+        <v>0.2057165842933333</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>404</v>
@@ -8880,19 +8880,19 @@
         <v>405358</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>370429</v>
+        <v>369291</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>446337</v>
+        <v>441314</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2491061646294586</v>
+        <v>0.2491061646294585</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2276413171103686</v>
+        <v>0.2269421990024335</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2742892972796043</v>
+        <v>0.2712026238273041</v>
       </c>
     </row>
     <row r="26">
@@ -8909,19 +8909,19 @@
         <v>541076</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>511052</v>
+        <v>512732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>568269</v>
+        <v>569834</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6779791792334073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6403587791149806</v>
+        <v>0.6424637485393535</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7120525535767089</v>
+        <v>0.7140135702075072</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>879</v>
@@ -8930,19 +8930,19 @@
         <v>680814</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>658266</v>
+        <v>658601</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>701144</v>
+        <v>698744</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8210733156692511</v>
+        <v>0.8210733156692513</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7938801993954431</v>
+        <v>0.7942834157066665</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8455914371355667</v>
+        <v>0.8426967116233564</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1417</v>
@@ -8951,19 +8951,19 @@
         <v>1221890</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1180911</v>
+        <v>1185934</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1256819</v>
+        <v>1257957</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7508938353705416</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7257107027203957</v>
+        <v>0.728797376172696</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7723586828896314</v>
+        <v>0.7730578009975665</v>
       </c>
     </row>
     <row r="27">
@@ -9055,19 +9055,19 @@
         <v>598199</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>543254</v>
+        <v>551384</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>648922</v>
+        <v>651303</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1696890530434719</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1541030503092878</v>
+        <v>0.1564092147845158</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1840773258585659</v>
+        <v>0.1847526812632788</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>627</v>
@@ -9076,19 +9076,19 @@
         <v>497389</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>459780</v>
+        <v>457937</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>538158</v>
+        <v>539206</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1333246494814634</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1232435916623572</v>
+        <v>0.1227496571733463</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1442529087985298</v>
+        <v>0.1445336747949941</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1126</v>
@@ -9097,19 +9097,19 @@
         <v>1095588</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1027639</v>
+        <v>1035876</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1157303</v>
+        <v>1167590</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1509921729445794</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1416275293917481</v>
+        <v>0.142762717467611</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1594976769982665</v>
+        <v>0.1609153214168622</v>
       </c>
     </row>
     <row r="29">
@@ -9126,19 +9126,19 @@
         <v>2927068</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2876345</v>
+        <v>2873964</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2982013</v>
+        <v>2973883</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8303109469565282</v>
+        <v>0.8303109469565281</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8159226741414348</v>
+        <v>0.815247318736721</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8458969496907122</v>
+        <v>0.8435907852154841</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4731</v>
@@ -9147,19 +9147,19 @@
         <v>3233269</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3192500</v>
+        <v>3191452</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3270878</v>
+        <v>3272721</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8666753505185365</v>
+        <v>0.8666753505185366</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8557470912014702</v>
+        <v>0.8554663252050059</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8767564083376427</v>
+        <v>0.8772503428266534</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7601</v>
@@ -9168,19 +9168,19 @@
         <v>6160337</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6098622</v>
+        <v>6088335</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6228286</v>
+        <v>6220049</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8490078270554207</v>
+        <v>0.8490078270554208</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8405023230017338</v>
+        <v>0.8390846785831384</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8583724706082518</v>
+        <v>0.8572372825323891</v>
       </c>
     </row>
     <row r="30">
